--- a/Kolkata/Frono_Customer_Report/Customer (1).xlsx
+++ b/Kolkata/Frono_Customer_Report/Customer (1).xlsx
@@ -23002,7 +23002,7 @@
         <v>Telangana</v>
       </c>
       <c r="I596" t="str">
-        <v>741,363.00 Dr</v>
+        <v>454,330.00 Dr</v>
       </c>
       <c r="J596" t="str">
         <v>PRAVEEN BHAI</v>
@@ -27920,7 +27920,7 @@
         <v>Gujarat</v>
       </c>
       <c r="I724" t="str">
-        <v>1,632,792.00 Dr</v>
+        <v>0.00 Cr</v>
       </c>
       <c r="J724" t="str">
         <v>PARAG BHAI</v>
